--- a/Methods/Suggested hyper-parameter values of EWNet model.xlsx
+++ b/Methods/Suggested hyper-parameter values of EWNet model.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D9840B-3678-47F3-ADF8-FB3BB006C4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arygup/Documents/GitHub/Signal-Decomposition-and-Prediction-on-real-world-data/Methods/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F14C53-516C-CF4F-95D3-7F04B1B34ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t xml:space="preserve">(Short, Medium, Long) is (13,26,52) for weekly data and (3,6,12) for monthly data </t>
   </si>
@@ -47,21 +52,12 @@
     <t>Japan Influenza</t>
   </si>
   <si>
-    <t>Mexico  Influenza</t>
-  </si>
-  <si>
     <t>Ahmedabad Dengue</t>
   </si>
   <si>
     <t>Bangkok Dengue</t>
   </si>
   <si>
-    <t>Colombia Dengue</t>
-  </si>
-  <si>
-    <t>Hong Kong Dengue</t>
-  </si>
-  <si>
     <t>Iquitos Dengue</t>
   </si>
   <si>
@@ -84,13 +80,34 @@
   </si>
   <si>
     <t>Venezuela Malaria</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>HongKong Dengue</t>
+  </si>
+  <si>
+    <t>Columbia Dengue</t>
+  </si>
+  <si>
+    <t>Mexico Influenza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,9 +162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -291,7 +308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,18 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="66.75" customHeight="1">
+    <row r="1" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -465,8 +482,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -479,8 +502,14 @@
       <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -493,10 +522,16 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -507,10 +542,16 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -521,10 +562,16 @@
       <c r="D5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -535,10 +582,16 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -549,10 +602,16 @@
       <c r="D7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -563,10 +622,16 @@
       <c r="D8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -577,10 +642,16 @@
       <c r="D9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>19</v>
@@ -591,10 +662,16 @@
       <c r="D10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -605,10 +682,16 @@
       <c r="D11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -619,10 +702,16 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -633,10 +722,16 @@
       <c r="D13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -647,10 +742,16 @@
       <c r="D14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -661,10 +762,16 @@
       <c r="D15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -673,6 +780,12 @@
         <v>12</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
